--- a/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据（SWIB）/Jamming_test/Random/500nodes/500.xlsx
+++ b/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据（SWIB）/Jamming_test/Random/500nodes/500.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据（SWIB）\Jamming_test\100nodes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据（SWIB）\Jamming_test\Random\500nodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C407843-DD04-4973-B7F5-35F81AE1A55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FB8BC9-F27A-44F0-907C-706377953ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1556,7 +1556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W110"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="W51" sqref="W51:W60"/>
     </sheetView>
   </sheetViews>
@@ -1599,7 +1599,7 @@
         <v>5</v>
       </c>
       <c r="H2">
-        <v>1652</v>
+        <v>2034</v>
       </c>
       <c r="I2" t="s">
         <v>6</v>
@@ -1623,7 +1623,7 @@
         <v>7</v>
       </c>
       <c r="Q2">
-        <v>6105</v>
+        <v>137908</v>
       </c>
       <c r="R2" t="s">
         <v>8</v>
@@ -1637,7 +1637,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -1655,7 +1655,7 @@
         <v>5</v>
       </c>
       <c r="H3">
-        <v>7706</v>
+        <v>139941</v>
       </c>
       <c r="I3" t="s">
         <v>6</v>
@@ -1667,7 +1667,7 @@
         <v>2</v>
       </c>
       <c r="M3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="N3" t="s">
         <v>4</v>
@@ -1679,7 +1679,7 @@
         <v>7</v>
       </c>
       <c r="Q3">
-        <v>12204</v>
+        <v>236342</v>
       </c>
       <c r="R3" t="s">
         <v>8</v>
@@ -1693,7 +1693,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -1711,7 +1711,7 @@
         <v>5</v>
       </c>
       <c r="H4">
-        <v>13791</v>
+        <v>238379</v>
       </c>
       <c r="I4" t="s">
         <v>6</v>
@@ -1723,7 +1723,7 @@
         <v>2</v>
       </c>
       <c r="M4">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N4" t="s">
         <v>4</v>
@@ -1735,7 +1735,7 @@
         <v>7</v>
       </c>
       <c r="Q4">
-        <v>18310</v>
+        <v>362309</v>
       </c>
       <c r="R4" t="s">
         <v>8</v>
@@ -1749,7 +1749,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -1767,7 +1767,7 @@
         <v>5</v>
       </c>
       <c r="H5">
-        <v>20007</v>
+        <v>364340</v>
       </c>
       <c r="I5" t="s">
         <v>6</v>
@@ -1779,7 +1779,7 @@
         <v>2</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N5" t="s">
         <v>4</v>
@@ -1791,7 +1791,7 @@
         <v>7</v>
       </c>
       <c r="Q5">
-        <v>24531</v>
+        <v>482615</v>
       </c>
       <c r="R5" t="s">
         <v>8</v>
@@ -1805,7 +1805,7 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -1823,7 +1823,7 @@
         <v>5</v>
       </c>
       <c r="H6">
-        <v>26183</v>
+        <v>484647</v>
       </c>
       <c r="I6" t="s">
         <v>6</v>
@@ -1835,7 +1835,7 @@
         <v>2</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="N6" t="s">
         <v>4</v>
@@ -1847,7 +1847,7 @@
         <v>7</v>
       </c>
       <c r="Q6">
-        <v>30621</v>
+        <v>627898</v>
       </c>
       <c r="R6" t="s">
         <v>8</v>
@@ -1861,7 +1861,7 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -1879,7 +1879,7 @@
         <v>5</v>
       </c>
       <c r="H7">
-        <v>32240</v>
+        <v>629928</v>
       </c>
       <c r="I7" t="s">
         <v>6</v>
@@ -1891,7 +1891,7 @@
         <v>2</v>
       </c>
       <c r="M7">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="N7" t="s">
         <v>4</v>
@@ -1903,7 +1903,7 @@
         <v>7</v>
       </c>
       <c r="Q7">
-        <v>36722</v>
+        <v>756883</v>
       </c>
       <c r="R7" t="s">
         <v>8</v>
@@ -1917,7 +1917,7 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>299</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -1935,7 +1935,7 @@
         <v>5</v>
       </c>
       <c r="H8">
-        <v>38340</v>
+        <v>758918</v>
       </c>
       <c r="I8" t="s">
         <v>6</v>
@@ -1947,7 +1947,7 @@
         <v>2</v>
       </c>
       <c r="M8">
-        <v>60</v>
+        <v>299</v>
       </c>
       <c r="N8" t="s">
         <v>4</v>
@@ -1959,7 +1959,7 @@
         <v>7</v>
       </c>
       <c r="Q8">
-        <v>42649</v>
+        <v>938175</v>
       </c>
       <c r="R8" t="s">
         <v>8</v>
@@ -1973,7 +1973,7 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
@@ -1991,7 +1991,7 @@
         <v>5</v>
       </c>
       <c r="H9">
-        <v>44315</v>
+        <v>940205</v>
       </c>
       <c r="I9" t="s">
         <v>6</v>
@@ -2003,7 +2003,7 @@
         <v>2</v>
       </c>
       <c r="M9">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="N9" t="s">
         <v>4</v>
@@ -2015,7 +2015,7 @@
         <v>7</v>
       </c>
       <c r="Q9">
-        <v>48889</v>
+        <v>1054013</v>
       </c>
       <c r="R9" t="s">
         <v>8</v>
@@ -2029,7 +2029,7 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>80</v>
+        <v>399</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -2047,7 +2047,7 @@
         <v>5</v>
       </c>
       <c r="H10">
-        <v>50532</v>
+        <v>1056055</v>
       </c>
       <c r="I10" t="s">
         <v>6</v>
@@ -2059,7 +2059,7 @@
         <v>2</v>
       </c>
       <c r="M10">
-        <v>80</v>
+        <v>399</v>
       </c>
       <c r="N10" t="s">
         <v>4</v>
@@ -2071,7 +2071,7 @@
         <v>7</v>
       </c>
       <c r="Q10">
-        <v>54994</v>
+        <v>1169499</v>
       </c>
       <c r="R10" t="s">
         <v>8</v>
@@ -2085,7 +2085,7 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
@@ -2103,7 +2103,7 @@
         <v>5</v>
       </c>
       <c r="H11">
-        <v>56659</v>
+        <v>1171525</v>
       </c>
       <c r="I11" t="s">
         <v>6</v>
@@ -2115,7 +2115,7 @@
         <v>2</v>
       </c>
       <c r="M11">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="N11" t="s">
         <v>4</v>
@@ -2127,7 +2127,7 @@
         <v>7</v>
       </c>
       <c r="Q11">
-        <v>61126</v>
+        <v>1327199</v>
       </c>
       <c r="R11" t="s">
         <v>8</v>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="U11" s="2">
         <f>Q11-H2</f>
-        <v>59474</v>
+        <v>1325165</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -2155,7 +2155,7 @@
       </c>
       <c r="U12">
         <f t="shared" ref="U12:U75" si="0">Q12-H3</f>
-        <v>-7706</v>
+        <v>-139941</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
@@ -2181,7 +2181,7 @@
         <v>5</v>
       </c>
       <c r="H13">
-        <v>1594</v>
+        <v>2028</v>
       </c>
       <c r="I13" t="s">
         <v>6</v>
@@ -2205,7 +2205,7 @@
         <v>7</v>
       </c>
       <c r="Q13">
-        <v>5916</v>
+        <v>67428</v>
       </c>
       <c r="R13" t="s">
         <v>8</v>
@@ -2215,7 +2215,7 @@
       </c>
       <c r="U13">
         <f t="shared" si="0"/>
-        <v>-7875</v>
+        <v>-170951</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -2223,7 +2223,7 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
@@ -2241,7 +2241,7 @@
         <v>5</v>
       </c>
       <c r="H14">
-        <v>7508</v>
+        <v>69448</v>
       </c>
       <c r="I14" t="s">
         <v>6</v>
@@ -2253,7 +2253,7 @@
         <v>2</v>
       </c>
       <c r="M14">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="N14" t="s">
         <v>4</v>
@@ -2265,7 +2265,7 @@
         <v>7</v>
       </c>
       <c r="Q14">
-        <v>11950</v>
+        <v>155624</v>
       </c>
       <c r="R14" t="s">
         <v>8</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="U14">
         <f t="shared" si="0"/>
-        <v>-8057</v>
+        <v>-208716</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
@@ -2283,7 +2283,7 @@
         <v>2</v>
       </c>
       <c r="B15">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
@@ -2301,7 +2301,7 @@
         <v>5</v>
       </c>
       <c r="H15">
-        <v>13541</v>
+        <v>157643</v>
       </c>
       <c r="I15" t="s">
         <v>6</v>
@@ -2313,7 +2313,7 @@
         <v>2</v>
       </c>
       <c r="M15">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N15" t="s">
         <v>4</v>
@@ -2325,7 +2325,7 @@
         <v>7</v>
       </c>
       <c r="Q15">
-        <v>17884</v>
+        <v>242524</v>
       </c>
       <c r="R15" t="s">
         <v>8</v>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="U15">
         <f t="shared" si="0"/>
-        <v>-8299</v>
+        <v>-242123</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
@@ -2343,7 +2343,7 @@
         <v>2</v>
       </c>
       <c r="B16">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -2361,7 +2361,7 @@
         <v>5</v>
       </c>
       <c r="H16">
-        <v>19446</v>
+        <v>244550</v>
       </c>
       <c r="I16" t="s">
         <v>6</v>
@@ -2373,7 +2373,7 @@
         <v>2</v>
       </c>
       <c r="M16">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N16" t="s">
         <v>4</v>
@@ -2385,7 +2385,7 @@
         <v>7</v>
       </c>
       <c r="Q16">
-        <v>23910</v>
+        <v>304404</v>
       </c>
       <c r="R16" t="s">
         <v>8</v>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="U16">
         <f t="shared" si="0"/>
-        <v>-8330</v>
+        <v>-325524</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
@@ -2403,7 +2403,7 @@
         <v>2</v>
       </c>
       <c r="B17">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
@@ -2421,7 +2421,7 @@
         <v>5</v>
       </c>
       <c r="H17">
-        <v>25496</v>
+        <v>306426</v>
       </c>
       <c r="I17" t="s">
         <v>6</v>
@@ -2433,7 +2433,7 @@
         <v>2</v>
       </c>
       <c r="M17">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="N17" t="s">
         <v>4</v>
@@ -2445,7 +2445,7 @@
         <v>7</v>
       </c>
       <c r="Q17">
-        <v>29889</v>
+        <v>389100</v>
       </c>
       <c r="R17" t="s">
         <v>8</v>
@@ -2455,7 +2455,7 @@
       </c>
       <c r="U17">
         <f t="shared" si="0"/>
-        <v>-8451</v>
+        <v>-369818</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
@@ -2463,7 +2463,7 @@
         <v>2</v>
       </c>
       <c r="B18">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
@@ -2481,7 +2481,7 @@
         <v>5</v>
       </c>
       <c r="H18">
-        <v>31539</v>
+        <v>391120</v>
       </c>
       <c r="I18" t="s">
         <v>6</v>
@@ -2493,7 +2493,7 @@
         <v>2</v>
       </c>
       <c r="M18">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="N18" t="s">
         <v>4</v>
@@ -2505,7 +2505,7 @@
         <v>7</v>
       </c>
       <c r="Q18">
-        <v>35892</v>
+        <v>493238</v>
       </c>
       <c r="R18" t="s">
         <v>8</v>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="U18">
         <f t="shared" si="0"/>
-        <v>-8423</v>
+        <v>-446967</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
@@ -2523,7 +2523,7 @@
         <v>2</v>
       </c>
       <c r="B19">
-        <v>60</v>
+        <v>299</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
@@ -2541,7 +2541,7 @@
         <v>5</v>
       </c>
       <c r="H19">
-        <v>37501</v>
+        <v>495264</v>
       </c>
       <c r="I19" t="s">
         <v>6</v>
@@ -2553,7 +2553,7 @@
         <v>2</v>
       </c>
       <c r="M19">
-        <v>60</v>
+        <v>299</v>
       </c>
       <c r="N19" t="s">
         <v>4</v>
@@ -2565,7 +2565,7 @@
         <v>7</v>
       </c>
       <c r="Q19">
-        <v>41935</v>
+        <v>576871</v>
       </c>
       <c r="R19" t="s">
         <v>8</v>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="U19">
         <f t="shared" si="0"/>
-        <v>-8597</v>
+        <v>-479184</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
@@ -2583,7 +2583,7 @@
         <v>2</v>
       </c>
       <c r="B20">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
@@ -2601,7 +2601,7 @@
         <v>5</v>
       </c>
       <c r="H20">
-        <v>43502</v>
+        <v>578901</v>
       </c>
       <c r="I20" t="s">
         <v>6</v>
@@ -2613,7 +2613,7 @@
         <v>2</v>
       </c>
       <c r="M20">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="N20" t="s">
         <v>4</v>
@@ -2625,7 +2625,7 @@
         <v>7</v>
       </c>
       <c r="Q20">
-        <v>47815</v>
+        <v>677685</v>
       </c>
       <c r="R20" t="s">
         <v>8</v>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="U20">
         <f t="shared" si="0"/>
-        <v>-8844</v>
+        <v>-493840</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
@@ -2643,7 +2643,7 @@
         <v>2</v>
       </c>
       <c r="B21">
-        <v>80</v>
+        <v>399</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
@@ -2661,7 +2661,7 @@
         <v>5</v>
       </c>
       <c r="H21">
-        <v>49403</v>
+        <v>679702</v>
       </c>
       <c r="I21" t="s">
         <v>6</v>
@@ -2673,7 +2673,7 @@
         <v>2</v>
       </c>
       <c r="M21">
-        <v>80</v>
+        <v>399</v>
       </c>
       <c r="N21" t="s">
         <v>4</v>
@@ -2685,7 +2685,7 @@
         <v>7</v>
       </c>
       <c r="Q21">
-        <v>53734</v>
+        <v>749716</v>
       </c>
       <c r="R21" t="s">
         <v>8</v>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="U21">
         <f t="shared" si="0"/>
-        <v>53734</v>
+        <v>749716</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
@@ -2703,7 +2703,7 @@
         <v>2</v>
       </c>
       <c r="B22">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
@@ -2721,7 +2721,7 @@
         <v>5</v>
       </c>
       <c r="H22">
-        <v>55302</v>
+        <v>751741</v>
       </c>
       <c r="I22" t="s">
         <v>6</v>
@@ -2733,7 +2733,7 @@
         <v>2</v>
       </c>
       <c r="M22">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="N22" t="s">
         <v>4</v>
@@ -2745,7 +2745,7 @@
         <v>7</v>
       </c>
       <c r="Q22">
-        <v>59789</v>
+        <v>816751</v>
       </c>
       <c r="R22" t="s">
         <v>8</v>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="U22" s="2">
         <f t="shared" si="0"/>
-        <v>58195</v>
+        <v>814723</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
@@ -2773,7 +2773,7 @@
       </c>
       <c r="U23">
         <f t="shared" si="0"/>
-        <v>-7508</v>
+        <v>-69448</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
@@ -2799,7 +2799,7 @@
         <v>5</v>
       </c>
       <c r="H24">
-        <v>1568</v>
+        <v>2035</v>
       </c>
       <c r="I24" t="s">
         <v>6</v>
@@ -2823,7 +2823,7 @@
         <v>7</v>
       </c>
       <c r="Q24">
-        <v>6023</v>
+        <v>60949</v>
       </c>
       <c r="R24" t="s">
         <v>8</v>
@@ -2833,7 +2833,7 @@
       </c>
       <c r="U24">
         <f t="shared" si="0"/>
-        <v>-7518</v>
+        <v>-96694</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
@@ -2841,7 +2841,7 @@
         <v>2</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
         <v>3</v>
@@ -2859,7 +2859,7 @@
         <v>5</v>
       </c>
       <c r="H25">
-        <v>7610</v>
+        <v>62960</v>
       </c>
       <c r="I25" t="s">
         <v>6</v>
@@ -2871,7 +2871,7 @@
         <v>2</v>
       </c>
       <c r="M25">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="N25" t="s">
         <v>4</v>
@@ -2883,7 +2883,7 @@
         <v>7</v>
       </c>
       <c r="Q25">
-        <v>12112</v>
+        <v>102995</v>
       </c>
       <c r="R25" t="s">
         <v>8</v>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="U25">
         <f t="shared" si="0"/>
-        <v>-7334</v>
+        <v>-141555</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
@@ -2901,7 +2901,7 @@
         <v>2</v>
       </c>
       <c r="B26">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
         <v>3</v>
@@ -2919,7 +2919,7 @@
         <v>5</v>
       </c>
       <c r="H26">
-        <v>13677</v>
+        <v>105004</v>
       </c>
       <c r="I26" t="s">
         <v>6</v>
@@ -2931,7 +2931,7 @@
         <v>2</v>
       </c>
       <c r="M26">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N26" t="s">
         <v>4</v>
@@ -2943,7 +2943,7 @@
         <v>7</v>
       </c>
       <c r="Q26">
-        <v>17953</v>
+        <v>148124</v>
       </c>
       <c r="R26" t="s">
         <v>8</v>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="U26">
         <f t="shared" si="0"/>
-        <v>-7543</v>
+        <v>-158302</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
@@ -2961,7 +2961,7 @@
         <v>2</v>
       </c>
       <c r="B27">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
@@ -2979,7 +2979,7 @@
         <v>5</v>
       </c>
       <c r="H27">
-        <v>19538</v>
+        <v>150136</v>
       </c>
       <c r="I27" t="s">
         <v>6</v>
@@ -2991,7 +2991,7 @@
         <v>2</v>
       </c>
       <c r="M27">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N27" t="s">
         <v>4</v>
@@ -3003,7 +3003,7 @@
         <v>7</v>
       </c>
       <c r="Q27">
-        <v>23935</v>
+        <v>221905</v>
       </c>
       <c r="R27" t="s">
         <v>8</v>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="U27">
         <f t="shared" si="0"/>
-        <v>-7604</v>
+        <v>-169215</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
@@ -3021,7 +3021,7 @@
         <v>2</v>
       </c>
       <c r="B28">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
@@ -3039,7 +3039,7 @@
         <v>5</v>
       </c>
       <c r="H28">
-        <v>25500</v>
+        <v>223919</v>
       </c>
       <c r="I28" t="s">
         <v>6</v>
@@ -3051,7 +3051,7 @@
         <v>2</v>
       </c>
       <c r="M28">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="N28" t="s">
         <v>4</v>
@@ -3063,7 +3063,7 @@
         <v>7</v>
       </c>
       <c r="Q28">
-        <v>29955</v>
+        <v>300334</v>
       </c>
       <c r="R28" t="s">
         <v>8</v>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="U28">
         <f t="shared" si="0"/>
-        <v>-7546</v>
+        <v>-194930</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
@@ -3081,7 +3081,7 @@
         <v>2</v>
       </c>
       <c r="B29">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C29" t="s">
         <v>3</v>
@@ -3099,7 +3099,7 @@
         <v>5</v>
       </c>
       <c r="H29">
-        <v>31518</v>
+        <v>302351</v>
       </c>
       <c r="I29" t="s">
         <v>6</v>
@@ -3111,7 +3111,7 @@
         <v>2</v>
       </c>
       <c r="M29">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="N29" t="s">
         <v>4</v>
@@ -3123,7 +3123,7 @@
         <v>7</v>
       </c>
       <c r="Q29">
-        <v>35881</v>
+        <v>389788</v>
       </c>
       <c r="R29" t="s">
         <v>8</v>
@@ -3133,7 +3133,7 @@
       </c>
       <c r="U29">
         <f t="shared" si="0"/>
-        <v>-7621</v>
+        <v>-189113</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
@@ -3141,7 +3141,7 @@
         <v>2</v>
       </c>
       <c r="B30">
-        <v>60</v>
+        <v>299</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
@@ -3159,7 +3159,7 @@
         <v>5</v>
       </c>
       <c r="H30">
-        <v>37464</v>
+        <v>391795</v>
       </c>
       <c r="I30" t="s">
         <v>6</v>
@@ -3171,7 +3171,7 @@
         <v>2</v>
       </c>
       <c r="M30">
-        <v>60</v>
+        <v>299</v>
       </c>
       <c r="N30" t="s">
         <v>4</v>
@@ -3183,7 +3183,7 @@
         <v>7</v>
       </c>
       <c r="Q30">
-        <v>41873</v>
+        <v>478973</v>
       </c>
       <c r="R30" t="s">
         <v>8</v>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="U30">
         <f t="shared" si="0"/>
-        <v>-7530</v>
+        <v>-200729</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
@@ -3201,7 +3201,7 @@
         <v>2</v>
       </c>
       <c r="B31">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -3219,7 +3219,7 @@
         <v>5</v>
       </c>
       <c r="H31">
-        <v>43437</v>
+        <v>480991</v>
       </c>
       <c r="I31" t="s">
         <v>6</v>
@@ -3231,7 +3231,7 @@
         <v>2</v>
       </c>
       <c r="M31">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="N31" t="s">
         <v>4</v>
@@ -3243,7 +3243,7 @@
         <v>7</v>
       </c>
       <c r="Q31">
-        <v>47862</v>
+        <v>529905</v>
       </c>
       <c r="R31" t="s">
         <v>8</v>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="U31">
         <f t="shared" si="0"/>
-        <v>-7440</v>
+        <v>-221836</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
@@ -3261,7 +3261,7 @@
         <v>2</v>
       </c>
       <c r="B32">
-        <v>80</v>
+        <v>399</v>
       </c>
       <c r="C32" t="s">
         <v>3</v>
@@ -3279,7 +3279,7 @@
         <v>5</v>
       </c>
       <c r="H32">
-        <v>49427</v>
+        <v>531926</v>
       </c>
       <c r="I32" t="s">
         <v>6</v>
@@ -3291,7 +3291,7 @@
         <v>2</v>
       </c>
       <c r="M32">
-        <v>80</v>
+        <v>399</v>
       </c>
       <c r="N32" t="s">
         <v>4</v>
@@ -3303,7 +3303,7 @@
         <v>7</v>
       </c>
       <c r="Q32">
-        <v>53713</v>
+        <v>586261</v>
       </c>
       <c r="R32" t="s">
         <v>8</v>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="U32">
         <f t="shared" si="0"/>
-        <v>53713</v>
+        <v>586261</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
@@ -3321,7 +3321,7 @@
         <v>2</v>
       </c>
       <c r="B33">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="C33" t="s">
         <v>3</v>
@@ -3339,7 +3339,7 @@
         <v>5</v>
       </c>
       <c r="H33">
-        <v>55277</v>
+        <v>588276</v>
       </c>
       <c r="I33" t="s">
         <v>6</v>
@@ -3351,7 +3351,7 @@
         <v>2</v>
       </c>
       <c r="M33">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="N33" t="s">
         <v>4</v>
@@ -3363,7 +3363,7 @@
         <v>7</v>
       </c>
       <c r="Q33">
-        <v>59640</v>
+        <v>642184</v>
       </c>
       <c r="R33" t="s">
         <v>8</v>
@@ -3373,7 +3373,7 @@
       </c>
       <c r="U33" s="2">
         <f t="shared" si="0"/>
-        <v>58072</v>
+        <v>640149</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
@@ -3391,7 +3391,7 @@
       </c>
       <c r="U34">
         <f t="shared" si="0"/>
-        <v>-7610</v>
+        <v>-62960</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
@@ -3417,7 +3417,7 @@
         <v>5</v>
       </c>
       <c r="H35">
-        <v>1573</v>
+        <v>2016</v>
       </c>
       <c r="I35" t="s">
         <v>6</v>
@@ -3441,7 +3441,7 @@
         <v>7</v>
       </c>
       <c r="Q35">
-        <v>5924</v>
+        <v>34300</v>
       </c>
       <c r="R35" t="s">
         <v>8</v>
@@ -3451,7 +3451,7 @@
       </c>
       <c r="U35">
         <f t="shared" si="0"/>
-        <v>-7753</v>
+        <v>-70704</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
@@ -3459,7 +3459,7 @@
         <v>2</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
         <v>3</v>
@@ -3477,7 +3477,7 @@
         <v>5</v>
       </c>
       <c r="H36">
-        <v>7504</v>
+        <v>36292</v>
       </c>
       <c r="I36" t="s">
         <v>6</v>
@@ -3489,7 +3489,7 @@
         <v>2</v>
       </c>
       <c r="M36">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="N36" t="s">
         <v>4</v>
@@ -3501,7 +3501,7 @@
         <v>7</v>
       </c>
       <c r="Q36">
-        <v>11885</v>
+        <v>69348</v>
       </c>
       <c r="R36" t="s">
         <v>8</v>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="U36">
         <f t="shared" si="0"/>
-        <v>-7653</v>
+        <v>-80788</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
@@ -3519,7 +3519,7 @@
         <v>2</v>
       </c>
       <c r="B37">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s">
         <v>3</v>
@@ -3537,7 +3537,7 @@
         <v>5</v>
       </c>
       <c r="H37">
-        <v>13449</v>
+        <v>71349</v>
       </c>
       <c r="I37" t="s">
         <v>6</v>
@@ -3549,7 +3549,7 @@
         <v>2</v>
       </c>
       <c r="M37">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N37" t="s">
         <v>4</v>
@@ -3561,7 +3561,7 @@
         <v>7</v>
       </c>
       <c r="Q37">
-        <v>18035</v>
+        <v>105499</v>
       </c>
       <c r="R37" t="s">
         <v>8</v>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="U37">
         <f t="shared" si="0"/>
-        <v>-7465</v>
+        <v>-118420</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
@@ -3579,7 +3579,7 @@
         <v>2</v>
       </c>
       <c r="B38">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
@@ -3597,7 +3597,7 @@
         <v>5</v>
       </c>
       <c r="H38">
-        <v>19615</v>
+        <v>107505</v>
       </c>
       <c r="I38" t="s">
         <v>6</v>
@@ -3609,7 +3609,7 @@
         <v>2</v>
       </c>
       <c r="M38">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N38" t="s">
         <v>4</v>
@@ -3621,7 +3621,7 @@
         <v>7</v>
       </c>
       <c r="Q38">
-        <v>23957</v>
+        <v>138663</v>
       </c>
       <c r="R38" t="s">
         <v>8</v>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="U38">
         <f t="shared" si="0"/>
-        <v>-7561</v>
+        <v>-163688</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
@@ -3639,7 +3639,7 @@
         <v>2</v>
       </c>
       <c r="B39">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="C39" t="s">
         <v>3</v>
@@ -3657,7 +3657,7 @@
         <v>5</v>
       </c>
       <c r="H39">
-        <v>25522</v>
+        <v>140669</v>
       </c>
       <c r="I39" t="s">
         <v>6</v>
@@ -3669,7 +3669,7 @@
         <v>2</v>
       </c>
       <c r="M39">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="N39" t="s">
         <v>4</v>
@@ -3681,7 +3681,7 @@
         <v>7</v>
       </c>
       <c r="Q39">
-        <v>29883</v>
+        <v>200958</v>
       </c>
       <c r="R39" t="s">
         <v>8</v>
@@ -3691,7 +3691,7 @@
       </c>
       <c r="U39">
         <f t="shared" si="0"/>
-        <v>-7581</v>
+        <v>-190837</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
@@ -3699,7 +3699,7 @@
         <v>2</v>
       </c>
       <c r="B40">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C40" t="s">
         <v>3</v>
@@ -3717,7 +3717,7 @@
         <v>5</v>
       </c>
       <c r="H40">
-        <v>31504</v>
+        <v>202972</v>
       </c>
       <c r="I40" t="s">
         <v>6</v>
@@ -3729,7 +3729,7 @@
         <v>2</v>
       </c>
       <c r="M40">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="N40" t="s">
         <v>4</v>
@@ -3741,7 +3741,7 @@
         <v>7</v>
       </c>
       <c r="Q40">
-        <v>35997</v>
+        <v>239560</v>
       </c>
       <c r="R40" t="s">
         <v>8</v>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="U40">
         <f t="shared" si="0"/>
-        <v>-7440</v>
+        <v>-241431</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
@@ -3759,7 +3759,7 @@
         <v>2</v>
       </c>
       <c r="B41">
-        <v>60</v>
+        <v>299</v>
       </c>
       <c r="C41" t="s">
         <v>3</v>
@@ -3777,7 +3777,7 @@
         <v>5</v>
       </c>
       <c r="H41">
-        <v>37562</v>
+        <v>241565</v>
       </c>
       <c r="I41" t="s">
         <v>6</v>
@@ -3789,7 +3789,7 @@
         <v>2</v>
       </c>
       <c r="M41">
-        <v>60</v>
+        <v>299</v>
       </c>
       <c r="N41" t="s">
         <v>4</v>
@@ -3801,7 +3801,7 @@
         <v>7</v>
       </c>
       <c r="Q41">
-        <v>41887</v>
+        <v>297898</v>
       </c>
       <c r="R41" t="s">
         <v>8</v>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="U41">
         <f t="shared" si="0"/>
-        <v>-7540</v>
+        <v>-234028</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
@@ -3819,7 +3819,7 @@
         <v>2</v>
       </c>
       <c r="B42">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="C42" t="s">
         <v>3</v>
@@ -3837,7 +3837,7 @@
         <v>5</v>
       </c>
       <c r="H42">
-        <v>43470</v>
+        <v>299901</v>
       </c>
       <c r="I42" t="s">
         <v>6</v>
@@ -3849,7 +3849,7 @@
         <v>2</v>
       </c>
       <c r="M42">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="N42" t="s">
         <v>4</v>
@@ -3861,7 +3861,7 @@
         <v>7</v>
       </c>
       <c r="Q42">
-        <v>47841</v>
+        <v>343295</v>
       </c>
       <c r="R42" t="s">
         <v>8</v>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="U42">
         <f t="shared" si="0"/>
-        <v>-7436</v>
+        <v>-244981</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
@@ -3879,7 +3879,7 @@
         <v>2</v>
       </c>
       <c r="B43">
-        <v>80</v>
+        <v>399</v>
       </c>
       <c r="C43" t="s">
         <v>3</v>
@@ -3897,7 +3897,7 @@
         <v>5</v>
       </c>
       <c r="H43">
-        <v>49427</v>
+        <v>345305</v>
       </c>
       <c r="I43" t="s">
         <v>6</v>
@@ -3909,7 +3909,7 @@
         <v>2</v>
       </c>
       <c r="M43">
-        <v>80</v>
+        <v>399</v>
       </c>
       <c r="N43" t="s">
         <v>4</v>
@@ -3921,7 +3921,7 @@
         <v>7</v>
       </c>
       <c r="Q43">
-        <v>53851</v>
+        <v>388700</v>
       </c>
       <c r="R43" t="s">
         <v>8</v>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="U43">
         <f t="shared" si="0"/>
-        <v>53851</v>
+        <v>388700</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
@@ -3939,7 +3939,7 @@
         <v>2</v>
       </c>
       <c r="B44">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="C44" t="s">
         <v>3</v>
@@ -3957,7 +3957,7 @@
         <v>5</v>
       </c>
       <c r="H44">
-        <v>55432</v>
+        <v>390707</v>
       </c>
       <c r="I44" t="s">
         <v>6</v>
@@ -3969,7 +3969,7 @@
         <v>2</v>
       </c>
       <c r="M44">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="N44" t="s">
         <v>4</v>
@@ -3981,7 +3981,7 @@
         <v>7</v>
       </c>
       <c r="Q44">
-        <v>59927</v>
+        <v>456665</v>
       </c>
       <c r="R44" t="s">
         <v>8</v>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="U44" s="2">
         <f t="shared" si="0"/>
-        <v>58354</v>
+        <v>454649</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="U45">
         <f t="shared" si="0"/>
-        <v>-7504</v>
+        <v>-36292</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
@@ -4035,7 +4035,7 @@
         <v>5</v>
       </c>
       <c r="H46">
-        <v>1567</v>
+        <v>2040</v>
       </c>
       <c r="I46" t="s">
         <v>6</v>
@@ -4059,7 +4059,7 @@
         <v>7</v>
       </c>
       <c r="Q46">
-        <v>6128</v>
+        <v>49399</v>
       </c>
       <c r="R46" t="s">
         <v>8</v>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="U46">
         <f t="shared" si="0"/>
-        <v>-7321</v>
+        <v>-21950</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
@@ -4077,7 +4077,7 @@
         <v>2</v>
       </c>
       <c r="B47">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
         <v>3</v>
@@ -4095,7 +4095,7 @@
         <v>5</v>
       </c>
       <c r="H47">
-        <v>7706</v>
+        <v>51394</v>
       </c>
       <c r="I47" t="s">
         <v>6</v>
@@ -4107,7 +4107,7 @@
         <v>2</v>
       </c>
       <c r="M47">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="N47" t="s">
         <v>4</v>
@@ -4119,7 +4119,7 @@
         <v>7</v>
       </c>
       <c r="Q47">
-        <v>12086</v>
+        <v>90583</v>
       </c>
       <c r="R47" t="s">
         <v>8</v>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="U47">
         <f t="shared" si="0"/>
-        <v>-7529</v>
+        <v>-16922</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
@@ -4137,7 +4137,7 @@
         <v>2</v>
       </c>
       <c r="B48">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C48" t="s">
         <v>3</v>
@@ -4155,7 +4155,7 @@
         <v>5</v>
       </c>
       <c r="H48">
-        <v>13649</v>
+        <v>92579</v>
       </c>
       <c r="I48" t="s">
         <v>6</v>
@@ -4167,7 +4167,7 @@
         <v>2</v>
       </c>
       <c r="M48">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N48" t="s">
         <v>4</v>
@@ -4179,7 +4179,7 @@
         <v>7</v>
       </c>
       <c r="Q48">
-        <v>18102</v>
+        <v>123149</v>
       </c>
       <c r="R48" t="s">
         <v>8</v>
@@ -4189,7 +4189,7 @@
       </c>
       <c r="U48">
         <f t="shared" si="0"/>
-        <v>-7420</v>
+        <v>-17520</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
@@ -4197,7 +4197,7 @@
         <v>2</v>
       </c>
       <c r="B49">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="C49" t="s">
         <v>3</v>
@@ -4215,7 +4215,7 @@
         <v>5</v>
       </c>
       <c r="H49">
-        <v>19667</v>
+        <v>125137</v>
       </c>
       <c r="I49" t="s">
         <v>6</v>
@@ -4227,7 +4227,7 @@
         <v>2</v>
       </c>
       <c r="M49">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N49" t="s">
         <v>4</v>
@@ -4239,7 +4239,7 @@
         <v>7</v>
       </c>
       <c r="Q49">
-        <v>24117</v>
+        <v>174600</v>
       </c>
       <c r="R49" t="s">
         <v>8</v>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="U49">
         <f t="shared" si="0"/>
-        <v>-7387</v>
+        <v>-28372</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
@@ -4257,7 +4257,7 @@
         <v>2</v>
       </c>
       <c r="B50">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="C50" t="s">
         <v>3</v>
@@ -4275,7 +4275,7 @@
         <v>5</v>
       </c>
       <c r="H50">
-        <v>25681</v>
+        <v>176592</v>
       </c>
       <c r="I50" t="s">
         <v>6</v>
@@ -4287,7 +4287,7 @@
         <v>2</v>
       </c>
       <c r="M50">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="N50" t="s">
         <v>4</v>
@@ -4299,7 +4299,7 @@
         <v>7</v>
       </c>
       <c r="Q50">
-        <v>30112</v>
+        <v>208116</v>
       </c>
       <c r="R50" t="s">
         <v>8</v>
@@ -4309,7 +4309,7 @@
       </c>
       <c r="U50">
         <f t="shared" si="0"/>
-        <v>-7450</v>
+        <v>-33449</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
@@ -4317,7 +4317,7 @@
         <v>2</v>
       </c>
       <c r="B51">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C51" t="s">
         <v>3</v>
@@ -4335,7 +4335,7 @@
         <v>5</v>
       </c>
       <c r="H51">
-        <v>31673</v>
+        <v>210113</v>
       </c>
       <c r="I51" t="s">
         <v>6</v>
@@ -4347,7 +4347,7 @@
         <v>2</v>
       </c>
       <c r="M51">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="N51" t="s">
         <v>4</v>
@@ -4359,7 +4359,7 @@
         <v>7</v>
       </c>
       <c r="Q51">
-        <v>35982</v>
+        <v>239357</v>
       </c>
       <c r="R51" t="s">
         <v>8</v>
@@ -4369,10 +4369,10 @@
       </c>
       <c r="U51">
         <f t="shared" si="0"/>
-        <v>-7488</v>
+        <v>-60544</v>
       </c>
       <c r="W51">
-        <v>59474</v>
+        <v>1325165</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
@@ -4380,7 +4380,7 @@
         <v>2</v>
       </c>
       <c r="B52">
-        <v>60</v>
+        <v>299</v>
       </c>
       <c r="C52" t="s">
         <v>3</v>
@@ -4398,7 +4398,7 @@
         <v>5</v>
       </c>
       <c r="H52">
-        <v>37546</v>
+        <v>241358</v>
       </c>
       <c r="I52" t="s">
         <v>6</v>
@@ -4410,7 +4410,7 @@
         <v>2</v>
       </c>
       <c r="M52">
-        <v>60</v>
+        <v>299</v>
       </c>
       <c r="N52" t="s">
         <v>4</v>
@@ -4422,7 +4422,7 @@
         <v>7</v>
       </c>
       <c r="Q52">
-        <v>41924</v>
+        <v>282689</v>
       </c>
       <c r="R52" t="s">
         <v>8</v>
@@ -4432,10 +4432,10 @@
       </c>
       <c r="U52">
         <f t="shared" si="0"/>
-        <v>-7503</v>
+        <v>-62616</v>
       </c>
       <c r="W52">
-        <v>58195</v>
+        <v>814723</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
@@ -4443,7 +4443,7 @@
         <v>2</v>
       </c>
       <c r="B53">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="C53" t="s">
         <v>3</v>
@@ -4461,7 +4461,7 @@
         <v>5</v>
       </c>
       <c r="H53">
-        <v>43484</v>
+        <v>284693</v>
       </c>
       <c r="I53" t="s">
         <v>6</v>
@@ -4473,7 +4473,7 @@
         <v>2</v>
       </c>
       <c r="M53">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="N53" t="s">
         <v>4</v>
@@ -4485,7 +4485,7 @@
         <v>7</v>
       </c>
       <c r="Q53">
-        <v>47778</v>
+        <v>325685</v>
       </c>
       <c r="R53" t="s">
         <v>8</v>
@@ -4495,10 +4495,10 @@
       </c>
       <c r="U53">
         <f t="shared" si="0"/>
-        <v>-7654</v>
+        <v>-65022</v>
       </c>
       <c r="W53">
-        <v>58072</v>
+        <v>640149</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
@@ -4506,7 +4506,7 @@
         <v>2</v>
       </c>
       <c r="B54">
-        <v>80</v>
+        <v>399</v>
       </c>
       <c r="C54" t="s">
         <v>3</v>
@@ -4524,7 +4524,7 @@
         <v>5</v>
       </c>
       <c r="H54">
-        <v>49361</v>
+        <v>327678</v>
       </c>
       <c r="I54" t="s">
         <v>6</v>
@@ -4536,7 +4536,7 @@
         <v>2</v>
       </c>
       <c r="M54">
-        <v>80</v>
+        <v>399</v>
       </c>
       <c r="N54" t="s">
         <v>4</v>
@@ -4548,7 +4548,7 @@
         <v>7</v>
       </c>
       <c r="Q54">
-        <v>53813</v>
+        <v>358102</v>
       </c>
       <c r="R54" t="s">
         <v>8</v>
@@ -4558,10 +4558,10 @@
       </c>
       <c r="U54">
         <f t="shared" si="0"/>
-        <v>53813</v>
+        <v>358102</v>
       </c>
       <c r="W54">
-        <v>58354</v>
+        <v>454649</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
@@ -4569,7 +4569,7 @@
         <v>2</v>
       </c>
       <c r="B55">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="C55" t="s">
         <v>3</v>
@@ -4587,7 +4587,7 @@
         <v>5</v>
       </c>
       <c r="H55">
-        <v>55397</v>
+        <v>360089</v>
       </c>
       <c r="I55" t="s">
         <v>6</v>
@@ -4599,7 +4599,7 @@
         <v>2</v>
       </c>
       <c r="M55">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="N55" t="s">
         <v>4</v>
@@ -4611,7 +4611,7 @@
         <v>7</v>
       </c>
       <c r="Q55">
-        <v>59758</v>
+        <v>396643</v>
       </c>
       <c r="R55" t="s">
         <v>8</v>
@@ -4621,10 +4621,10 @@
       </c>
       <c r="U55" s="2">
         <f t="shared" si="0"/>
-        <v>58191</v>
+        <v>394603</v>
       </c>
       <c r="W55">
-        <v>58191</v>
+        <v>394603</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.2">
@@ -4642,10 +4642,10 @@
       </c>
       <c r="U56">
         <f t="shared" si="0"/>
-        <v>-7706</v>
+        <v>-51394</v>
       </c>
       <c r="W56">
-        <v>58405</v>
+        <v>324865</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
@@ -4671,7 +4671,7 @@
         <v>5</v>
       </c>
       <c r="H57">
-        <v>1572</v>
+        <v>2025</v>
       </c>
       <c r="I57" t="s">
         <v>6</v>
@@ -4695,7 +4695,7 @@
         <v>7</v>
       </c>
       <c r="Q57">
-        <v>5884</v>
+        <v>25133</v>
       </c>
       <c r="R57" t="s">
         <v>8</v>
@@ -4705,10 +4705,10 @@
       </c>
       <c r="U57">
         <f t="shared" si="0"/>
-        <v>-7765</v>
+        <v>-67446</v>
       </c>
       <c r="W57">
-        <v>57967</v>
+        <v>276529</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.2">
@@ -4716,7 +4716,7 @@
         <v>2</v>
       </c>
       <c r="B58">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C58" t="s">
         <v>3</v>
@@ -4734,7 +4734,7 @@
         <v>5</v>
       </c>
       <c r="H58">
-        <v>7445</v>
+        <v>27136</v>
       </c>
       <c r="I58" t="s">
         <v>6</v>
@@ -4746,7 +4746,7 @@
         <v>2</v>
       </c>
       <c r="M58">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="N58" t="s">
         <v>4</v>
@@ -4758,7 +4758,7 @@
         <v>7</v>
       </c>
       <c r="Q58">
-        <v>11796</v>
+        <v>58216</v>
       </c>
       <c r="R58" t="s">
         <v>8</v>
@@ -4768,10 +4768,10 @@
       </c>
       <c r="U58">
         <f t="shared" si="0"/>
-        <v>-7871</v>
+        <v>-66921</v>
       </c>
       <c r="W58">
-        <v>58141</v>
+        <v>253967</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.2">
@@ -4779,7 +4779,7 @@
         <v>2</v>
       </c>
       <c r="B59">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C59" t="s">
         <v>3</v>
@@ -4797,7 +4797,7 @@
         <v>5</v>
       </c>
       <c r="H59">
-        <v>13358</v>
+        <v>60210</v>
       </c>
       <c r="I59" t="s">
         <v>6</v>
@@ -4809,7 +4809,7 @@
         <v>2</v>
       </c>
       <c r="M59">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N59" t="s">
         <v>4</v>
@@ -4821,7 +4821,7 @@
         <v>7</v>
       </c>
       <c r="Q59">
-        <v>17892</v>
+        <v>91430</v>
       </c>
       <c r="R59" t="s">
         <v>8</v>
@@ -4831,10 +4831,10 @@
       </c>
       <c r="U59">
         <f t="shared" si="0"/>
-        <v>-7789</v>
+        <v>-85162</v>
       </c>
       <c r="W59">
-        <v>57962</v>
+        <v>239450</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.2">
@@ -4842,7 +4842,7 @@
         <v>2</v>
       </c>
       <c r="B60">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="C60" t="s">
         <v>3</v>
@@ -4860,7 +4860,7 @@
         <v>5</v>
       </c>
       <c r="H60">
-        <v>19455</v>
+        <v>93420</v>
       </c>
       <c r="I60" t="s">
         <v>6</v>
@@ -4872,7 +4872,7 @@
         <v>2</v>
       </c>
       <c r="M60">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N60" t="s">
         <v>4</v>
@@ -4884,7 +4884,7 @@
         <v>7</v>
       </c>
       <c r="Q60">
-        <v>23769</v>
+        <v>118699</v>
       </c>
       <c r="R60" t="s">
         <v>8</v>
@@ -4894,10 +4894,10 @@
       </c>
       <c r="U60">
         <f t="shared" si="0"/>
-        <v>-7904</v>
+        <v>-91414</v>
       </c>
       <c r="W60">
-        <v>58334</v>
+        <v>200638</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.2">
@@ -4905,7 +4905,7 @@
         <v>2</v>
       </c>
       <c r="B61">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="C61" t="s">
         <v>3</v>
@@ -4923,7 +4923,7 @@
         <v>5</v>
       </c>
       <c r="H61">
-        <v>25353</v>
+        <v>120688</v>
       </c>
       <c r="I61" t="s">
         <v>6</v>
@@ -4935,7 +4935,7 @@
         <v>2</v>
       </c>
       <c r="M61">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="N61" t="s">
         <v>4</v>
@@ -4947,7 +4947,7 @@
         <v>7</v>
       </c>
       <c r="Q61">
-        <v>29852</v>
+        <v>143134</v>
       </c>
       <c r="R61" t="s">
         <v>8</v>
@@ -4957,7 +4957,7 @@
       </c>
       <c r="U61">
         <f t="shared" si="0"/>
-        <v>-7694</v>
+        <v>-98224</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.2">
@@ -4965,7 +4965,7 @@
         <v>2</v>
       </c>
       <c r="B62">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C62" t="s">
         <v>3</v>
@@ -4983,7 +4983,7 @@
         <v>5</v>
       </c>
       <c r="H62">
-        <v>31415</v>
+        <v>145130</v>
       </c>
       <c r="I62" t="s">
         <v>6</v>
@@ -4995,7 +4995,7 @@
         <v>2</v>
       </c>
       <c r="M62">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="N62" t="s">
         <v>4</v>
@@ -5007,7 +5007,7 @@
         <v>7</v>
       </c>
       <c r="Q62">
-        <v>35855</v>
+        <v>177819</v>
       </c>
       <c r="R62" t="s">
         <v>8</v>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="U62">
         <f t="shared" si="0"/>
-        <v>-7629</v>
+        <v>-106874</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.2">
@@ -5025,7 +5025,7 @@
         <v>2</v>
       </c>
       <c r="B63">
-        <v>60</v>
+        <v>299</v>
       </c>
       <c r="C63" t="s">
         <v>3</v>
@@ -5043,7 +5043,7 @@
         <v>5</v>
       </c>
       <c r="H63">
-        <v>37435</v>
+        <v>179806</v>
       </c>
       <c r="I63" t="s">
         <v>6</v>
@@ -5055,7 +5055,7 @@
         <v>2</v>
       </c>
       <c r="M63">
-        <v>60</v>
+        <v>299</v>
       </c>
       <c r="N63" t="s">
         <v>4</v>
@@ -5067,7 +5067,7 @@
         <v>7</v>
       </c>
       <c r="Q63">
-        <v>41977</v>
+        <v>212616</v>
       </c>
       <c r="R63" t="s">
         <v>8</v>
@@ -5077,7 +5077,7 @@
       </c>
       <c r="U63">
         <f t="shared" si="0"/>
-        <v>-7384</v>
+        <v>-115062</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.2">
@@ -5085,7 +5085,7 @@
         <v>2</v>
       </c>
       <c r="B64">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="C64" t="s">
         <v>3</v>
@@ -5103,7 +5103,7 @@
         <v>5</v>
       </c>
       <c r="H64">
-        <v>43540</v>
+        <v>214609</v>
       </c>
       <c r="I64" t="s">
         <v>6</v>
@@ -5115,7 +5115,7 @@
         <v>2</v>
       </c>
       <c r="M64">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="N64" t="s">
         <v>4</v>
@@ -5127,7 +5127,7 @@
         <v>7</v>
       </c>
       <c r="Q64">
-        <v>47902</v>
+        <v>258596</v>
       </c>
       <c r="R64" t="s">
         <v>8</v>
@@ -5137,7 +5137,7 @@
       </c>
       <c r="U64">
         <f t="shared" si="0"/>
-        <v>-7495</v>
+        <v>-101493</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.2">
@@ -5145,7 +5145,7 @@
         <v>2</v>
       </c>
       <c r="B65">
-        <v>80</v>
+        <v>399</v>
       </c>
       <c r="C65" t="s">
         <v>3</v>
@@ -5163,7 +5163,7 @@
         <v>5</v>
       </c>
       <c r="H65">
-        <v>49463</v>
+        <v>260579</v>
       </c>
       <c r="I65" t="s">
         <v>6</v>
@@ -5175,7 +5175,7 @@
         <v>2</v>
       </c>
       <c r="M65">
-        <v>80</v>
+        <v>399</v>
       </c>
       <c r="N65" t="s">
         <v>4</v>
@@ -5187,7 +5187,7 @@
         <v>7</v>
       </c>
       <c r="Q65">
-        <v>53979</v>
+        <v>289832</v>
       </c>
       <c r="R65" t="s">
         <v>8</v>
@@ -5197,7 +5197,7 @@
       </c>
       <c r="U65">
         <f t="shared" si="0"/>
-        <v>53979</v>
+        <v>289832</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.2">
@@ -5205,7 +5205,7 @@
         <v>2</v>
       </c>
       <c r="B66">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="C66" t="s">
         <v>3</v>
@@ -5223,7 +5223,7 @@
         <v>5</v>
       </c>
       <c r="H66">
-        <v>55549</v>
+        <v>291828</v>
       </c>
       <c r="I66" t="s">
         <v>6</v>
@@ -5235,7 +5235,7 @@
         <v>2</v>
       </c>
       <c r="M66">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="N66" t="s">
         <v>4</v>
@@ -5247,7 +5247,7 @@
         <v>7</v>
       </c>
       <c r="Q66">
-        <v>59977</v>
+        <v>326890</v>
       </c>
       <c r="R66" t="s">
         <v>8</v>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="U66" s="2">
         <f t="shared" si="0"/>
-        <v>58405</v>
+        <v>324865</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.2">
@@ -5275,7 +5275,7 @@
       </c>
       <c r="U67">
         <f t="shared" si="0"/>
-        <v>-7445</v>
+        <v>-27136</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.2">
@@ -5301,7 +5301,7 @@
         <v>5</v>
       </c>
       <c r="H68">
-        <v>1567</v>
+        <v>2029</v>
       </c>
       <c r="I68" t="s">
         <v>6</v>
@@ -5325,7 +5325,7 @@
         <v>7</v>
       </c>
       <c r="Q68">
-        <v>5875</v>
+        <v>27342</v>
       </c>
       <c r="R68" t="s">
         <v>8</v>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="U68">
         <f t="shared" si="0"/>
-        <v>-7483</v>
+        <v>-32868</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.2">
@@ -5343,7 +5343,7 @@
         <v>2</v>
       </c>
       <c r="B69">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C69" t="s">
         <v>3</v>
@@ -5361,7 +5361,7 @@
         <v>5</v>
       </c>
       <c r="H69">
-        <v>7441</v>
+        <v>29304</v>
       </c>
       <c r="I69" t="s">
         <v>6</v>
@@ -5373,7 +5373,7 @@
         <v>2</v>
       </c>
       <c r="M69">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="N69" t="s">
         <v>4</v>
@@ -5385,7 +5385,7 @@
         <v>7</v>
       </c>
       <c r="Q69">
-        <v>11789</v>
+        <v>53085</v>
       </c>
       <c r="R69" t="s">
         <v>8</v>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="U69">
         <f t="shared" si="0"/>
-        <v>-7666</v>
+        <v>-40335</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.2">
@@ -5403,7 +5403,7 @@
         <v>2</v>
       </c>
       <c r="B70">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C70" t="s">
         <v>3</v>
@@ -5421,7 +5421,7 @@
         <v>5</v>
       </c>
       <c r="H70">
-        <v>13366</v>
+        <v>55074</v>
       </c>
       <c r="I70" t="s">
         <v>6</v>
@@ -5433,7 +5433,7 @@
         <v>2</v>
       </c>
       <c r="M70">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N70" t="s">
         <v>4</v>
@@ -5445,7 +5445,7 @@
         <v>7</v>
       </c>
       <c r="Q70">
-        <v>17761</v>
+        <v>79165</v>
       </c>
       <c r="R70" t="s">
         <v>8</v>
@@ -5455,7 +5455,7 @@
       </c>
       <c r="U70">
         <f t="shared" si="0"/>
-        <v>-7592</v>
+        <v>-41523</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.2">
@@ -5463,7 +5463,7 @@
         <v>2</v>
       </c>
       <c r="B71">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="C71" t="s">
         <v>3</v>
@@ -5481,7 +5481,7 @@
         <v>5</v>
       </c>
       <c r="H71">
-        <v>19328</v>
+        <v>81143</v>
       </c>
       <c r="I71" t="s">
         <v>6</v>
@@ -5493,7 +5493,7 @@
         <v>2</v>
       </c>
       <c r="M71">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N71" t="s">
         <v>4</v>
@@ -5505,7 +5505,7 @@
         <v>7</v>
       </c>
       <c r="Q71">
-        <v>23718</v>
+        <v>107938</v>
       </c>
       <c r="R71" t="s">
         <v>8</v>
@@ -5515,7 +5515,7 @@
       </c>
       <c r="U71">
         <f t="shared" si="0"/>
-        <v>-7697</v>
+        <v>-37192</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.2">
@@ -5523,7 +5523,7 @@
         <v>2</v>
       </c>
       <c r="B72">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="C72" t="s">
         <v>3</v>
@@ -5541,7 +5541,7 @@
         <v>5</v>
       </c>
       <c r="H72">
-        <v>25298</v>
+        <v>109912</v>
       </c>
       <c r="I72" t="s">
         <v>6</v>
@@ -5553,7 +5553,7 @@
         <v>2</v>
       </c>
       <c r="M72">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="N72" t="s">
         <v>4</v>
@@ -5565,7 +5565,7 @@
         <v>7</v>
       </c>
       <c r="Q72">
-        <v>29605</v>
+        <v>133456</v>
       </c>
       <c r="R72" t="s">
         <v>8</v>
@@ -5575,7 +5575,7 @@
       </c>
       <c r="U72">
         <f t="shared" si="0"/>
-        <v>-7830</v>
+        <v>-46350</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.2">
@@ -5583,7 +5583,7 @@
         <v>2</v>
       </c>
       <c r="B73">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C73" t="s">
         <v>3</v>
@@ -5601,7 +5601,7 @@
         <v>5</v>
       </c>
       <c r="H73">
-        <v>31171</v>
+        <v>135435</v>
       </c>
       <c r="I73" t="s">
         <v>6</v>
@@ -5613,7 +5613,7 @@
         <v>2</v>
       </c>
       <c r="M73">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="N73" t="s">
         <v>4</v>
@@ -5625,7 +5625,7 @@
         <v>7</v>
       </c>
       <c r="Q73">
-        <v>35522</v>
+        <v>161894</v>
       </c>
       <c r="R73" t="s">
         <v>8</v>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="U73">
         <f t="shared" si="0"/>
-        <v>-8018</v>
+        <v>-52715</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.2">
@@ -5643,7 +5643,7 @@
         <v>2</v>
       </c>
       <c r="B74">
-        <v>60</v>
+        <v>299</v>
       </c>
       <c r="C74" t="s">
         <v>3</v>
@@ -5661,7 +5661,7 @@
         <v>5</v>
       </c>
       <c r="H74">
-        <v>37118</v>
+        <v>163885</v>
       </c>
       <c r="I74" t="s">
         <v>6</v>
@@ -5673,7 +5673,7 @@
         <v>2</v>
       </c>
       <c r="M74">
-        <v>60</v>
+        <v>299</v>
       </c>
       <c r="N74" t="s">
         <v>4</v>
@@ -5685,7 +5685,7 @@
         <v>7</v>
       </c>
       <c r="Q74">
-        <v>41483</v>
+        <v>186754</v>
       </c>
       <c r="R74" t="s">
         <v>8</v>
@@ -5695,7 +5695,7 @@
       </c>
       <c r="U74">
         <f t="shared" si="0"/>
-        <v>-7980</v>
+        <v>-73825</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.2">
@@ -5703,7 +5703,7 @@
         <v>2</v>
       </c>
       <c r="B75">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="C75" t="s">
         <v>3</v>
@@ -5721,7 +5721,7 @@
         <v>5</v>
       </c>
       <c r="H75">
-        <v>43061</v>
+        <v>188733</v>
       </c>
       <c r="I75" t="s">
         <v>6</v>
@@ -5733,7 +5733,7 @@
         <v>2</v>
       </c>
       <c r="M75">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="N75" t="s">
         <v>4</v>
@@ -5745,7 +5745,7 @@
         <v>7</v>
       </c>
       <c r="Q75">
-        <v>47431</v>
+        <v>217689</v>
       </c>
       <c r="R75" t="s">
         <v>8</v>
@@ -5755,7 +5755,7 @@
       </c>
       <c r="U75">
         <f t="shared" si="0"/>
-        <v>-8118</v>
+        <v>-74139</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.2">
@@ -5763,7 +5763,7 @@
         <v>2</v>
       </c>
       <c r="B76">
-        <v>80</v>
+        <v>399</v>
       </c>
       <c r="C76" t="s">
         <v>3</v>
@@ -5781,7 +5781,7 @@
         <v>5</v>
       </c>
       <c r="H76">
-        <v>48996</v>
+        <v>219662</v>
       </c>
       <c r="I76" t="s">
         <v>6</v>
@@ -5793,7 +5793,7 @@
         <v>2</v>
       </c>
       <c r="M76">
-        <v>80</v>
+        <v>399</v>
       </c>
       <c r="N76" t="s">
         <v>4</v>
@@ -5805,7 +5805,7 @@
         <v>7</v>
       </c>
       <c r="Q76">
-        <v>53423</v>
+        <v>240904</v>
       </c>
       <c r="R76" t="s">
         <v>8</v>
@@ -5815,7 +5815,7 @@
       </c>
       <c r="U76">
         <f t="shared" ref="U76:U110" si="1">Q76-H67</f>
-        <v>53423</v>
+        <v>240904</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.2">
@@ -5823,7 +5823,7 @@
         <v>2</v>
       </c>
       <c r="B77">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="C77" t="s">
         <v>3</v>
@@ -5841,7 +5841,7 @@
         <v>5</v>
       </c>
       <c r="H77">
-        <v>55020</v>
+        <v>242892</v>
       </c>
       <c r="I77" t="s">
         <v>6</v>
@@ -5853,7 +5853,7 @@
         <v>2</v>
       </c>
       <c r="M77">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="N77" t="s">
         <v>4</v>
@@ -5865,7 +5865,7 @@
         <v>7</v>
       </c>
       <c r="Q77">
-        <v>59534</v>
+        <v>278558</v>
       </c>
       <c r="R77" t="s">
         <v>8</v>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="U77" s="2">
         <f t="shared" si="1"/>
-        <v>57967</v>
+        <v>276529</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.2">
@@ -5893,7 +5893,7 @@
       </c>
       <c r="U78">
         <f t="shared" si="1"/>
-        <v>-7441</v>
+        <v>-29304</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.2">
@@ -5919,7 +5919,7 @@
         <v>5</v>
       </c>
       <c r="H79">
-        <v>1569</v>
+        <v>1998</v>
       </c>
       <c r="I79" t="s">
         <v>6</v>
@@ -5943,7 +5943,7 @@
         <v>7</v>
       </c>
       <c r="Q79">
-        <v>6066</v>
+        <v>24884</v>
       </c>
       <c r="R79" t="s">
         <v>8</v>
@@ -5953,7 +5953,7 @@
       </c>
       <c r="U79">
         <f t="shared" si="1"/>
-        <v>-7300</v>
+        <v>-30190</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.2">
@@ -5961,7 +5961,7 @@
         <v>2</v>
       </c>
       <c r="B80">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C80" t="s">
         <v>3</v>
@@ -5979,7 +5979,7 @@
         <v>5</v>
       </c>
       <c r="H80">
-        <v>7628</v>
+        <v>26852</v>
       </c>
       <c r="I80" t="s">
         <v>6</v>
@@ -5991,7 +5991,7 @@
         <v>2</v>
       </c>
       <c r="M80">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="N80" t="s">
         <v>4</v>
@@ -6003,7 +6003,7 @@
         <v>7</v>
       </c>
       <c r="Q80">
-        <v>11969</v>
+        <v>54904</v>
       </c>
       <c r="R80" t="s">
         <v>8</v>
@@ -6013,7 +6013,7 @@
       </c>
       <c r="U80">
         <f t="shared" si="1"/>
-        <v>-7359</v>
+        <v>-26239</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.2">
@@ -6021,7 +6021,7 @@
         <v>2</v>
       </c>
       <c r="B81">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C81" t="s">
         <v>3</v>
@@ -6039,7 +6039,7 @@
         <v>5</v>
       </c>
       <c r="H81">
-        <v>13532</v>
+        <v>56886</v>
       </c>
       <c r="I81" t="s">
         <v>6</v>
@@ -6051,7 +6051,7 @@
         <v>2</v>
       </c>
       <c r="M81">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N81" t="s">
         <v>4</v>
@@ -6063,7 +6063,7 @@
         <v>7</v>
       </c>
       <c r="Q81">
-        <v>18104</v>
+        <v>73000</v>
       </c>
       <c r="R81" t="s">
         <v>8</v>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="U81">
         <f t="shared" si="1"/>
-        <v>-7194</v>
+        <v>-36912</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.2">
@@ -6081,7 +6081,7 @@
         <v>2</v>
       </c>
       <c r="B82">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="C82" t="s">
         <v>3</v>
@@ -6099,7 +6099,7 @@
         <v>5</v>
       </c>
       <c r="H82">
-        <v>19667</v>
+        <v>74981</v>
       </c>
       <c r="I82" t="s">
         <v>6</v>
@@ -6111,7 +6111,7 @@
         <v>2</v>
       </c>
       <c r="M82">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N82" t="s">
         <v>4</v>
@@ -6123,7 +6123,7 @@
         <v>7</v>
       </c>
       <c r="Q82">
-        <v>24022</v>
+        <v>99265</v>
       </c>
       <c r="R82" t="s">
         <v>8</v>
@@ -6133,7 +6133,7 @@
       </c>
       <c r="U82">
         <f t="shared" si="1"/>
-        <v>-7149</v>
+        <v>-36170</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.2">
@@ -6141,7 +6141,7 @@
         <v>2</v>
       </c>
       <c r="B83">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="C83" t="s">
         <v>3</v>
@@ -6159,7 +6159,7 @@
         <v>5</v>
       </c>
       <c r="H83">
-        <v>25600</v>
+        <v>101248</v>
       </c>
       <c r="I83" t="s">
         <v>6</v>
@@ -6171,7 +6171,7 @@
         <v>2</v>
       </c>
       <c r="M83">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="N83" t="s">
         <v>4</v>
@@ -6183,7 +6183,7 @@
         <v>7</v>
       </c>
       <c r="Q83">
-        <v>29950</v>
+        <v>126200</v>
       </c>
       <c r="R83" t="s">
         <v>8</v>
@@ -6193,7 +6193,7 @@
       </c>
       <c r="U83">
         <f t="shared" si="1"/>
-        <v>-7168</v>
+        <v>-37685</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.2">
@@ -6201,7 +6201,7 @@
         <v>2</v>
       </c>
       <c r="B84">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C84" t="s">
         <v>3</v>
@@ -6219,7 +6219,7 @@
         <v>5</v>
       </c>
       <c r="H84">
-        <v>31519</v>
+        <v>128173</v>
       </c>
       <c r="I84" t="s">
         <v>6</v>
@@ -6231,7 +6231,7 @@
         <v>2</v>
       </c>
       <c r="M84">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="N84" t="s">
         <v>4</v>
@@ -6243,7 +6243,7 @@
         <v>7</v>
       </c>
       <c r="Q84">
-        <v>35838</v>
+        <v>146340</v>
       </c>
       <c r="R84" t="s">
         <v>8</v>
@@ -6253,7 +6253,7 @@
       </c>
       <c r="U84">
         <f t="shared" si="1"/>
-        <v>-7223</v>
+        <v>-42393</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.2">
@@ -6261,7 +6261,7 @@
         <v>2</v>
       </c>
       <c r="B85">
-        <v>60</v>
+        <v>299</v>
       </c>
       <c r="C85" t="s">
         <v>3</v>
@@ -6279,7 +6279,7 @@
         <v>5</v>
       </c>
       <c r="H85">
-        <v>37409</v>
+        <v>148311</v>
       </c>
       <c r="I85" t="s">
         <v>6</v>
@@ -6291,7 +6291,7 @@
         <v>2</v>
       </c>
       <c r="M85">
-        <v>60</v>
+        <v>299</v>
       </c>
       <c r="N85" t="s">
         <v>4</v>
@@ -6303,7 +6303,7 @@
         <v>7</v>
       </c>
       <c r="Q85">
-        <v>41744</v>
+        <v>176417</v>
       </c>
       <c r="R85" t="s">
         <v>8</v>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="U85">
         <f t="shared" si="1"/>
-        <v>-7252</v>
+        <v>-43245</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.2">
@@ -6321,7 +6321,7 @@
         <v>2</v>
       </c>
       <c r="B86">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="C86" t="s">
         <v>3</v>
@@ -6339,7 +6339,7 @@
         <v>5</v>
       </c>
       <c r="H86">
-        <v>43340</v>
+        <v>178393</v>
       </c>
       <c r="I86" t="s">
         <v>6</v>
@@ -6351,7 +6351,7 @@
         <v>2</v>
       </c>
       <c r="M86">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="N86" t="s">
         <v>4</v>
@@ -6363,7 +6363,7 @@
         <v>7</v>
       </c>
       <c r="Q86">
-        <v>47901</v>
+        <v>199149</v>
       </c>
       <c r="R86" t="s">
         <v>8</v>
@@ -6373,7 +6373,7 @@
       </c>
       <c r="U86">
         <f t="shared" si="1"/>
-        <v>-7119</v>
+        <v>-43743</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.2">
@@ -6381,7 +6381,7 @@
         <v>2</v>
       </c>
       <c r="B87">
-        <v>80</v>
+        <v>399</v>
       </c>
       <c r="C87" t="s">
         <v>3</v>
@@ -6399,7 +6399,7 @@
         <v>5</v>
       </c>
       <c r="H87">
-        <v>49470</v>
+        <v>201117</v>
       </c>
       <c r="I87" t="s">
         <v>6</v>
@@ -6411,7 +6411,7 @@
         <v>2</v>
       </c>
       <c r="M87">
-        <v>80</v>
+        <v>399</v>
       </c>
       <c r="N87" t="s">
         <v>4</v>
@@ -6423,7 +6423,7 @@
         <v>7</v>
       </c>
       <c r="Q87">
-        <v>53788</v>
+        <v>232062</v>
       </c>
       <c r="R87" t="s">
         <v>8</v>
@@ -6433,7 +6433,7 @@
       </c>
       <c r="U87">
         <f t="shared" si="1"/>
-        <v>53788</v>
+        <v>232062</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.2">
@@ -6441,7 +6441,7 @@
         <v>2</v>
       </c>
       <c r="B88">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="C88" t="s">
         <v>3</v>
@@ -6459,7 +6459,7 @@
         <v>5</v>
       </c>
       <c r="H88">
-        <v>55350</v>
+        <v>234041</v>
       </c>
       <c r="I88" t="s">
         <v>6</v>
@@ -6471,7 +6471,7 @@
         <v>2</v>
       </c>
       <c r="M88">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="N88" t="s">
         <v>4</v>
@@ -6483,7 +6483,7 @@
         <v>7</v>
       </c>
       <c r="Q88">
-        <v>59710</v>
+        <v>255965</v>
       </c>
       <c r="R88" t="s">
         <v>8</v>
@@ -6493,7 +6493,7 @@
       </c>
       <c r="U88" s="2">
         <f t="shared" si="1"/>
-        <v>58141</v>
+        <v>253967</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.2">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="U89">
         <f t="shared" si="1"/>
-        <v>-7628</v>
+        <v>-26852</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.2">
@@ -6537,7 +6537,7 @@
         <v>5</v>
       </c>
       <c r="H90">
-        <v>1570</v>
+        <v>2001</v>
       </c>
       <c r="I90" t="s">
         <v>6</v>
@@ -6561,7 +6561,7 @@
         <v>7</v>
       </c>
       <c r="Q90">
-        <v>5919</v>
+        <v>25781</v>
       </c>
       <c r="R90" t="s">
         <v>8</v>
@@ -6571,7 +6571,7 @@
       </c>
       <c r="U90">
         <f t="shared" si="1"/>
-        <v>-7613</v>
+        <v>-31105</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.2">
@@ -6579,7 +6579,7 @@
         <v>2</v>
       </c>
       <c r="B91">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C91" t="s">
         <v>3</v>
@@ -6597,7 +6597,7 @@
         <v>5</v>
       </c>
       <c r="H91">
-        <v>7477</v>
+        <v>27739</v>
       </c>
       <c r="I91" t="s">
         <v>6</v>
@@ -6609,7 +6609,7 @@
         <v>2</v>
       </c>
       <c r="M91">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="N91" t="s">
         <v>4</v>
@@ -6621,7 +6621,7 @@
         <v>7</v>
       </c>
       <c r="Q91">
-        <v>11934</v>
+        <v>43776</v>
       </c>
       <c r="R91" t="s">
         <v>8</v>
@@ -6631,7 +6631,7 @@
       </c>
       <c r="U91">
         <f t="shared" si="1"/>
-        <v>-7733</v>
+        <v>-31205</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.2">
@@ -6639,7 +6639,7 @@
         <v>2</v>
       </c>
       <c r="B92">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C92" t="s">
         <v>3</v>
@@ -6657,7 +6657,7 @@
         <v>5</v>
       </c>
       <c r="H92">
-        <v>13494</v>
+        <v>45743</v>
       </c>
       <c r="I92" t="s">
         <v>6</v>
@@ -6669,7 +6669,7 @@
         <v>2</v>
       </c>
       <c r="M92">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N92" t="s">
         <v>4</v>
@@ -6681,7 +6681,7 @@
         <v>7</v>
       </c>
       <c r="Q92">
-        <v>17880</v>
+        <v>64782</v>
       </c>
       <c r="R92" t="s">
         <v>8</v>
@@ -6691,7 +6691,7 @@
       </c>
       <c r="U92">
         <f t="shared" si="1"/>
-        <v>-7720</v>
+        <v>-36466</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.2">
@@ -6699,7 +6699,7 @@
         <v>2</v>
       </c>
       <c r="B93">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="C93" t="s">
         <v>3</v>
@@ -6717,7 +6717,7 @@
         <v>5</v>
       </c>
       <c r="H93">
-        <v>19441</v>
+        <v>66749</v>
       </c>
       <c r="I93" t="s">
         <v>6</v>
@@ -6729,7 +6729,7 @@
         <v>2</v>
       </c>
       <c r="M93">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N93" t="s">
         <v>4</v>
@@ -6741,7 +6741,7 @@
         <v>7</v>
       </c>
       <c r="Q93">
-        <v>23858</v>
+        <v>96534</v>
       </c>
       <c r="R93" t="s">
         <v>8</v>
@@ -6751,7 +6751,7 @@
       </c>
       <c r="U93">
         <f t="shared" si="1"/>
-        <v>-7661</v>
+        <v>-31639</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.2">
@@ -6759,7 +6759,7 @@
         <v>2</v>
       </c>
       <c r="B94">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="C94" t="s">
         <v>3</v>
@@ -6777,7 +6777,7 @@
         <v>5</v>
       </c>
       <c r="H94">
-        <v>25424</v>
+        <v>98491</v>
       </c>
       <c r="I94" t="s">
         <v>6</v>
@@ -6789,7 +6789,7 @@
         <v>2</v>
       </c>
       <c r="M94">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="N94" t="s">
         <v>4</v>
@@ -6801,7 +6801,7 @@
         <v>7</v>
       </c>
       <c r="Q94">
-        <v>29854</v>
+        <v>127559</v>
       </c>
       <c r="R94" t="s">
         <v>8</v>
@@ -6811,7 +6811,7 @@
       </c>
       <c r="U94">
         <f t="shared" si="1"/>
-        <v>-7555</v>
+        <v>-20752</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.2">
@@ -6819,7 +6819,7 @@
         <v>2</v>
       </c>
       <c r="B95">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C95" t="s">
         <v>3</v>
@@ -6837,7 +6837,7 @@
         <v>5</v>
       </c>
       <c r="H95">
-        <v>31417</v>
+        <v>129532</v>
       </c>
       <c r="I95" t="s">
         <v>6</v>
@@ -6849,7 +6849,7 @@
         <v>2</v>
       </c>
       <c r="M95">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="N95" t="s">
         <v>4</v>
@@ -6861,7 +6861,7 @@
         <v>7</v>
       </c>
       <c r="Q95">
-        <v>35733</v>
+        <v>146023</v>
       </c>
       <c r="R95" t="s">
         <v>8</v>
@@ -6871,7 +6871,7 @@
       </c>
       <c r="U95">
         <f t="shared" si="1"/>
-        <v>-7607</v>
+        <v>-32370</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.2">
@@ -6879,7 +6879,7 @@
         <v>2</v>
       </c>
       <c r="B96">
-        <v>60</v>
+        <v>299</v>
       </c>
       <c r="C96" t="s">
         <v>3</v>
@@ -6897,7 +6897,7 @@
         <v>5</v>
       </c>
       <c r="H96">
-        <v>37293</v>
+        <v>147989</v>
       </c>
       <c r="I96" t="s">
         <v>6</v>
@@ -6909,7 +6909,7 @@
         <v>2</v>
       </c>
       <c r="M96">
-        <v>60</v>
+        <v>299</v>
       </c>
       <c r="N96" t="s">
         <v>4</v>
@@ -6921,7 +6921,7 @@
         <v>7</v>
       </c>
       <c r="Q96">
-        <v>41675</v>
+        <v>173364</v>
       </c>
       <c r="R96" t="s">
         <v>8</v>
@@ -6931,7 +6931,7 @@
       </c>
       <c r="U96">
         <f t="shared" si="1"/>
-        <v>-7795</v>
+        <v>-27753</v>
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.2">
@@ -6939,7 +6939,7 @@
         <v>2</v>
       </c>
       <c r="B97">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="C97" t="s">
         <v>3</v>
@@ -6957,7 +6957,7 @@
         <v>5</v>
       </c>
       <c r="H97">
-        <v>43240</v>
+        <v>175313</v>
       </c>
       <c r="I97" t="s">
         <v>6</v>
@@ -6969,7 +6969,7 @@
         <v>2</v>
       </c>
       <c r="M97">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="N97" t="s">
         <v>4</v>
@@ -6981,7 +6981,7 @@
         <v>7</v>
       </c>
       <c r="Q97">
-        <v>47683</v>
+        <v>191495</v>
       </c>
       <c r="R97" t="s">
         <v>8</v>
@@ -6991,7 +6991,7 @@
       </c>
       <c r="U97">
         <f t="shared" si="1"/>
-        <v>-7667</v>
+        <v>-42546</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.2">
@@ -6999,7 +6999,7 @@
         <v>2</v>
       </c>
       <c r="B98">
-        <v>80</v>
+        <v>399</v>
       </c>
       <c r="C98" t="s">
         <v>3</v>
@@ -7017,7 +7017,7 @@
         <v>5</v>
       </c>
       <c r="H98">
-        <v>49259</v>
+        <v>193450</v>
       </c>
       <c r="I98" t="s">
         <v>6</v>
@@ -7029,7 +7029,7 @@
         <v>2</v>
       </c>
       <c r="M98">
-        <v>80</v>
+        <v>399</v>
       </c>
       <c r="N98" t="s">
         <v>4</v>
@@ -7041,7 +7041,7 @@
         <v>7</v>
       </c>
       <c r="Q98">
-        <v>53560</v>
+        <v>216241</v>
       </c>
       <c r="R98" t="s">
         <v>8</v>
@@ -7051,7 +7051,7 @@
       </c>
       <c r="U98">
         <f t="shared" si="1"/>
-        <v>53560</v>
+        <v>216241</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.2">
@@ -7059,7 +7059,7 @@
         <v>2</v>
       </c>
       <c r="B99">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="C99" t="s">
         <v>3</v>
@@ -7077,7 +7077,7 @@
         <v>5</v>
       </c>
       <c r="H99">
-        <v>55126</v>
+        <v>218207</v>
       </c>
       <c r="I99" t="s">
         <v>6</v>
@@ -7089,7 +7089,7 @@
         <v>2</v>
       </c>
       <c r="M99">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="N99" t="s">
         <v>4</v>
@@ -7101,7 +7101,7 @@
         <v>7</v>
       </c>
       <c r="Q99">
-        <v>59532</v>
+        <v>241451</v>
       </c>
       <c r="R99" t="s">
         <v>8</v>
@@ -7111,7 +7111,7 @@
       </c>
       <c r="U99" s="2">
         <f t="shared" si="1"/>
-        <v>57962</v>
+        <v>239450</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.2">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="U100">
         <f t="shared" si="1"/>
-        <v>-7477</v>
+        <v>-27739</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.2">
@@ -7155,7 +7155,7 @@
         <v>5</v>
       </c>
       <c r="H101">
-        <v>1568</v>
+        <v>2025</v>
       </c>
       <c r="I101" t="s">
         <v>6</v>
@@ -7179,7 +7179,7 @@
         <v>7</v>
       </c>
       <c r="Q101">
-        <v>5979</v>
+        <v>16377</v>
       </c>
       <c r="R101" t="s">
         <v>8</v>
@@ -7189,7 +7189,7 @@
       </c>
       <c r="U101">
         <f t="shared" si="1"/>
-        <v>-7515</v>
+        <v>-29366</v>
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.2">
@@ -7197,7 +7197,7 @@
         <v>2</v>
       </c>
       <c r="B102">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C102" t="s">
         <v>3</v>
@@ -7215,7 +7215,7 @@
         <v>5</v>
       </c>
       <c r="H102">
-        <v>7540</v>
+        <v>18322</v>
       </c>
       <c r="I102" t="s">
         <v>6</v>
@@ -7227,7 +7227,7 @@
         <v>2</v>
       </c>
       <c r="M102">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="N102" t="s">
         <v>4</v>
@@ -7239,7 +7239,7 @@
         <v>7</v>
       </c>
       <c r="Q102">
-        <v>11899</v>
+        <v>37629</v>
       </c>
       <c r="R102" t="s">
         <v>8</v>
@@ -7249,7 +7249,7 @@
       </c>
       <c r="U102">
         <f t="shared" si="1"/>
-        <v>-7542</v>
+        <v>-29120</v>
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.2">
@@ -7257,7 +7257,7 @@
         <v>2</v>
       </c>
       <c r="B103">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C103" t="s">
         <v>3</v>
@@ -7275,7 +7275,7 @@
         <v>5</v>
       </c>
       <c r="H103">
-        <v>13461</v>
+        <v>39553</v>
       </c>
       <c r="I103" t="s">
         <v>6</v>
@@ -7287,7 +7287,7 @@
         <v>2</v>
       </c>
       <c r="M103">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N103" t="s">
         <v>4</v>
@@ -7299,7 +7299,7 @@
         <v>7</v>
       </c>
       <c r="Q103">
-        <v>17858</v>
+        <v>60298</v>
       </c>
       <c r="R103" t="s">
         <v>8</v>
@@ -7309,7 +7309,7 @@
       </c>
       <c r="U103">
         <f t="shared" si="1"/>
-        <v>-7566</v>
+        <v>-38193</v>
       </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.2">
@@ -7317,7 +7317,7 @@
         <v>2</v>
       </c>
       <c r="B104">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="C104" t="s">
         <v>3</v>
@@ -7335,7 +7335,7 @@
         <v>5</v>
       </c>
       <c r="H104">
-        <v>19424</v>
+        <v>62249</v>
       </c>
       <c r="I104" t="s">
         <v>6</v>
@@ -7347,7 +7347,7 @@
         <v>2</v>
       </c>
       <c r="M104">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N104" t="s">
         <v>4</v>
@@ -7359,7 +7359,7 @@
         <v>7</v>
       </c>
       <c r="Q104">
-        <v>23917</v>
+        <v>77753</v>
       </c>
       <c r="R104" t="s">
         <v>8</v>
@@ -7369,7 +7369,7 @@
       </c>
       <c r="U104">
         <f t="shared" si="1"/>
-        <v>-7500</v>
+        <v>-51779</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.2">
@@ -7377,7 +7377,7 @@
         <v>2</v>
       </c>
       <c r="B105">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="C105" t="s">
         <v>3</v>
@@ -7395,7 +7395,7 @@
         <v>5</v>
       </c>
       <c r="H105">
-        <v>25484</v>
+        <v>79704</v>
       </c>
       <c r="I105" t="s">
         <v>6</v>
@@ -7407,7 +7407,7 @@
         <v>2</v>
       </c>
       <c r="M105">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="N105" t="s">
         <v>4</v>
@@ -7419,7 +7419,7 @@
         <v>7</v>
       </c>
       <c r="Q105">
-        <v>29926</v>
+        <v>98237</v>
       </c>
       <c r="R105" t="s">
         <v>8</v>
@@ -7429,7 +7429,7 @@
       </c>
       <c r="U105">
         <f t="shared" si="1"/>
-        <v>-7367</v>
+        <v>-49752</v>
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.2">
@@ -7437,7 +7437,7 @@
         <v>2</v>
       </c>
       <c r="B106">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C106" t="s">
         <v>3</v>
@@ -7455,7 +7455,7 @@
         <v>5</v>
       </c>
       <c r="H106">
-        <v>31496</v>
+        <v>100182</v>
       </c>
       <c r="I106" t="s">
         <v>6</v>
@@ -7467,7 +7467,7 @@
         <v>2</v>
       </c>
       <c r="M106">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="N106" t="s">
         <v>4</v>
@@ -7479,7 +7479,7 @@
         <v>7</v>
       </c>
       <c r="Q106">
-        <v>36059</v>
+        <v>118313</v>
       </c>
       <c r="R106" t="s">
         <v>8</v>
@@ -7489,7 +7489,7 @@
       </c>
       <c r="U106">
         <f t="shared" si="1"/>
-        <v>-7181</v>
+        <v>-57000</v>
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.2">
@@ -7497,7 +7497,7 @@
         <v>2</v>
       </c>
       <c r="B107">
-        <v>60</v>
+        <v>299</v>
       </c>
       <c r="C107" t="s">
         <v>3</v>
@@ -7515,7 +7515,7 @@
         <v>5</v>
       </c>
       <c r="H107">
-        <v>37626</v>
+        <v>120265</v>
       </c>
       <c r="I107" t="s">
         <v>6</v>
@@ -7527,7 +7527,7 @@
         <v>2</v>
       </c>
       <c r="M107">
-        <v>60</v>
+        <v>299</v>
       </c>
       <c r="N107" t="s">
         <v>4</v>
@@ -7539,7 +7539,7 @@
         <v>7</v>
       </c>
       <c r="Q107">
-        <v>41886</v>
+        <v>142175</v>
       </c>
       <c r="R107" t="s">
         <v>8</v>
@@ -7549,7 +7549,7 @@
       </c>
       <c r="U107">
         <f t="shared" si="1"/>
-        <v>-7373</v>
+        <v>-51275</v>
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.2">
@@ -7557,7 +7557,7 @@
         <v>2</v>
       </c>
       <c r="B108">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="C108" t="s">
         <v>3</v>
@@ -7575,7 +7575,7 @@
         <v>5</v>
       </c>
       <c r="H108">
-        <v>43459</v>
+        <v>144114</v>
       </c>
       <c r="I108" t="s">
         <v>6</v>
@@ -7587,7 +7587,7 @@
         <v>2</v>
       </c>
       <c r="M108">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="N108" t="s">
         <v>4</v>
@@ -7599,7 +7599,7 @@
         <v>7</v>
       </c>
       <c r="Q108">
-        <v>47840</v>
+        <v>158991</v>
       </c>
       <c r="R108" t="s">
         <v>8</v>
@@ -7609,7 +7609,7 @@
       </c>
       <c r="U108">
         <f t="shared" si="1"/>
-        <v>-7286</v>
+        <v>-59216</v>
       </c>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.2">
@@ -7617,7 +7617,7 @@
         <v>2</v>
       </c>
       <c r="B109">
-        <v>80</v>
+        <v>399</v>
       </c>
       <c r="C109" t="s">
         <v>3</v>
@@ -7635,7 +7635,7 @@
         <v>5</v>
       </c>
       <c r="H109">
-        <v>49409</v>
+        <v>160948</v>
       </c>
       <c r="I109" t="s">
         <v>6</v>
@@ -7647,7 +7647,7 @@
         <v>2</v>
       </c>
       <c r="M109">
-        <v>80</v>
+        <v>399</v>
       </c>
       <c r="N109" t="s">
         <v>4</v>
@@ -7659,7 +7659,7 @@
         <v>7</v>
       </c>
       <c r="Q109">
-        <v>53933</v>
+        <v>180398</v>
       </c>
       <c r="R109" t="s">
         <v>8</v>
@@ -7669,7 +7669,7 @@
       </c>
       <c r="U109">
         <f t="shared" si="1"/>
-        <v>53933</v>
+        <v>180398</v>
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.2">
@@ -7677,7 +7677,7 @@
         <v>2</v>
       </c>
       <c r="B110">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="C110" t="s">
         <v>3</v>
@@ -7695,7 +7695,7 @@
         <v>5</v>
       </c>
       <c r="H110">
-        <v>55505</v>
+        <v>182361</v>
       </c>
       <c r="I110" t="s">
         <v>6</v>
@@ -7707,7 +7707,7 @@
         <v>2</v>
       </c>
       <c r="M110">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="N110" t="s">
         <v>4</v>
@@ -7719,7 +7719,7 @@
         <v>7</v>
       </c>
       <c r="Q110">
-        <v>59902</v>
+        <v>202663</v>
       </c>
       <c r="R110" t="s">
         <v>8</v>
@@ -7729,7 +7729,7 @@
       </c>
       <c r="U110" s="2">
         <f t="shared" si="1"/>
-        <v>58334</v>
+        <v>200638</v>
       </c>
     </row>
   </sheetData>
@@ -7776,22 +7776,22 @@
         <v>0.05</v>
       </c>
       <c r="B2">
-        <v>59474</v>
+        <v>1325165</v>
       </c>
       <c r="C2" s="1">
         <f>B2*50/10000000</f>
-        <v>0.29737000000000002</v>
+        <v>6.6258249999999999</v>
       </c>
       <c r="D2" s="1">
         <f>E2/C2</f>
-        <v>6883.6802636446173</v>
+        <v>308.9426599706452</v>
       </c>
       <c r="E2">
         <v>2047</v>
       </c>
       <c r="G2">
         <f>FLOOR(D2,1)</f>
-        <v>6883</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -7799,22 +7799,22 @@
         <v>0.1</v>
       </c>
       <c r="B3">
-        <v>58195</v>
+        <v>814723</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:C11" si="0">B3*50/10000000</f>
-        <v>0.29097499999999998</v>
+        <v>4.0736150000000002</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D11" si="1">E3/C3</f>
-        <v>7034.9686399175189</v>
+        <v>502.50207739317534</v>
       </c>
       <c r="E3">
         <v>2047</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G11" si="2">FLOOR(D3,1)</f>
-        <v>7034</v>
+        <v>502</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -7822,22 +7822,22 @@
         <v>0.15</v>
       </c>
       <c r="B4">
-        <v>58072</v>
+        <v>640149</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>0.29036000000000001</v>
+        <v>3.200745</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="1"/>
-        <v>7049.8691279790601</v>
+        <v>639.53860741796052</v>
       </c>
       <c r="E4">
         <v>2047</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>7049</v>
+        <v>639</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -7845,22 +7845,22 @@
         <v>0.2</v>
       </c>
       <c r="B5">
-        <v>58354</v>
+        <v>454649</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>0.29176999999999997</v>
+        <v>2.2732450000000002</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>7015.8001165301439</v>
+        <v>900.47487182419843</v>
       </c>
       <c r="E5">
         <v>2047</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>7015</v>
+        <v>900</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -7868,22 +7868,22 @@
         <v>0.25</v>
       </c>
       <c r="B6">
-        <v>58191</v>
+        <v>394603</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>0.29095500000000002</v>
+        <v>1.973015</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>7035.452217696894</v>
+        <v>1037.4984478070364</v>
       </c>
       <c r="E6">
         <v>2047</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>7035</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -7891,22 +7891,22 @@
         <v>0.3</v>
       </c>
       <c r="B7">
-        <v>58405</v>
+        <v>324865</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>0.29202499999999998</v>
+        <v>1.624325</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>7009.6738292954378</v>
+        <v>1260.2157819401905</v>
       </c>
       <c r="E7">
         <v>2047</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>7009</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -7914,22 +7914,22 @@
         <v>0.35</v>
       </c>
       <c r="B8">
-        <v>57967</v>
+        <v>276529</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>0.28983500000000001</v>
+        <v>1.3826449999999999</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>7062.6390877568265</v>
+        <v>1480.495716543292</v>
       </c>
       <c r="E8">
         <v>2047</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>7062</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -7937,22 +7937,22 @@
         <v>0.4</v>
       </c>
       <c r="B9">
-        <v>58141</v>
+        <v>253967</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>0.29070499999999999</v>
+        <v>1.269835</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>7041.5025541356363</v>
+        <v>1612.020459351018</v>
       </c>
       <c r="E9">
         <v>2047</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>7041</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -7960,22 +7960,22 @@
         <v>0.45</v>
       </c>
       <c r="B10">
-        <v>57962</v>
+        <v>239450</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>0.28981000000000001</v>
+        <v>1.1972499999999999</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>7063.24833511611</v>
+        <v>1709.7515138859887</v>
       </c>
       <c r="E10">
         <v>2047</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>7063</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -7983,22 +7983,22 @@
         <v>0.5</v>
       </c>
       <c r="B11">
-        <v>58334</v>
+        <v>200638</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>0.29166999999999998</v>
+        <v>1.00319</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>7018.2055062227864</v>
+        <v>2040.4908342387782</v>
       </c>
       <c r="E11">
         <v>2047</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>7018</v>
+        <v>2040</v>
       </c>
     </row>
   </sheetData>
